--- a/Tarea 5/sergio/Tarea 3/Libro1.xlsx
+++ b/Tarea 5/sergio/Tarea 3/Libro1.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stroncod/Documents/4TO AÑO/ICF222/Tarea 3/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="444" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>kroA200</t>
   </si>
@@ -59,25 +51,10 @@
     <t>Mutación</t>
   </si>
   <si>
-    <t>0.05</t>
+    <t>Generaciones</t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Generaciones</t>
+    <t>att48</t>
   </si>
 </sst>
 </file>
@@ -85,8 +62,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -147,8 +124,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -182,7 +159,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-CL"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -233,26 +210,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -294,22 +251,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -321,22 +278,22 @@
                 <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.000">
-                  <c:v>0.415969848633</c:v>
+                  <c:v>65.292000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60625910759</c:v>
+                  <c:v>80.911000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>1.31418180466</c:v>
+                  <c:v>100.78400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.000">
-                  <c:v>2.18840789795</c:v>
+                  <c:v>208.27600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.000">
-                  <c:v>8.86569309235</c:v>
+                  <c:v>309.24099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.000">
-                  <c:v>17.3576581478</c:v>
+                  <c:v>400.50400000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -351,11 +308,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141738320"/>
-        <c:axId val="-2140048224"/>
+        <c:axId val="187746176"/>
+        <c:axId val="187756544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141738320"/>
+        <c:axId val="187746176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -409,15 +366,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140048224"/>
+        <c:crossAx val="187756544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140048224"/>
+        <c:axId val="187756544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -471,10 +428,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141738320"/>
+        <c:crossAx val="187746176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -512,7 +469,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -526,7 +483,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-CL"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -577,26 +534,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -638,22 +575,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -665,22 +602,22 @@
                 <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.000">
-                  <c:v>0.415969848633</c:v>
+                  <c:v>65.292000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60625910759</c:v>
+                  <c:v>80.911000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>1.31418180466</c:v>
+                  <c:v>100.78400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.000">
-                  <c:v>2.18840789795</c:v>
+                  <c:v>208.27600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.000">
-                  <c:v>8.86569309235</c:v>
+                  <c:v>309.24099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.000">
-                  <c:v>17.3576581478</c:v>
+                  <c:v>400.50400000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,11 +632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073206976"/>
-        <c:axId val="-2078033072"/>
+        <c:axId val="187911168"/>
+        <c:axId val="187921536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073206976"/>
+        <c:axId val="187911168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,15 +690,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078033072"/>
+        <c:crossAx val="187921536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2078033072"/>
+        <c:axId val="187921536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,10 +752,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073206976"/>
+        <c:crossAx val="187911168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -856,7 +793,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2299,7 +2236,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2309,16 +2246,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -2329,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2340,7 +2277,7 @@
         <v>0.60625910759000001</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -2348,41 +2285,41 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L4" s="4">
         <v>10</v>
       </c>
       <c r="M4" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N4" s="4">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="3">
-        <v>353969.19125999999</v>
+        <v>123</v>
       </c>
       <c r="L5" s="3">
-        <v>366978.22713200003</v>
+        <v>123</v>
       </c>
       <c r="M5" s="3">
-        <v>372579.93314400001</v>
+        <v>123</v>
       </c>
       <c r="N5" s="3">
-        <v>360379.91323200002</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -2395,131 +2332,131 @@
       <c r="J7" t="s">
         <v>9</v>
       </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" t="s">
-        <v>12</v>
+      <c r="K7">
+        <v>0.05</v>
+      </c>
+      <c r="L7">
+        <v>0.1</v>
+      </c>
+      <c r="M7">
+        <v>0.3</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>0.41596984863300002</v>
+        <v>65.292000000000002</v>
       </c>
       <c r="E8" s="3">
-        <v>405324.43012099998</v>
+        <v>111432</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="3">
-        <v>353969.19125999999</v>
+        <v>132</v>
       </c>
       <c r="L8" s="3">
-        <v>351011.27197499998</v>
+        <v>123</v>
       </c>
       <c r="M8" s="3">
-        <v>392751.56639599998</v>
+        <v>132</v>
       </c>
       <c r="N8" s="3">
-        <v>405782.185704</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>0.60625910759000001</v>
+        <v>80.911000000000001</v>
       </c>
       <c r="E9" s="3">
-        <v>392517.7</v>
+        <v>109645</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" s="2">
-        <v>1.31418180466</v>
+        <v>100.78400000000001</v>
       </c>
       <c r="E10" s="3">
-        <v>370635.45868500002</v>
+        <v>108894</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>1000</v>
+      </c>
+      <c r="N10">
+        <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>100</v>
       </c>
       <c r="D11" s="2">
-        <v>2.1884078979499999</v>
+        <v>208.27600000000001</v>
       </c>
       <c r="E11" s="3">
-        <v>353969.19125999999</v>
+        <v>103735</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>
       </c>
       <c r="K11" s="3">
-        <v>353969.19125999999</v>
+        <v>123</v>
       </c>
       <c r="L11" s="3">
-        <v>368822.91157200001</v>
+        <v>123</v>
       </c>
       <c r="M11" s="3">
-        <v>328259.18466000003</v>
+        <v>1231</v>
       </c>
       <c r="N11" s="3">
-        <v>357626.546715</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>500</v>
       </c>
       <c r="D12" s="2">
-        <v>8.8656930923499999</v>
+        <v>309.24099999999999</v>
       </c>
       <c r="E12" s="3">
-        <v>357924.09422999999</v>
+        <v>104843</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>1000</v>
       </c>
       <c r="D13" s="2">
-        <v>17.357658147799999</v>
+        <v>400.50400000000002</v>
       </c>
       <c r="E13" s="3">
-        <v>387789.40870899998</v>
+        <v>106327</v>
       </c>
     </row>
   </sheetData>
